--- a/SJ/NCA/GC_NCA_Results.xlsx
+++ b/SJ/NCA/GC_NCA_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NONMEM\SJ\NCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA198216-0EB3-4928-AD99-AB28A429B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA35CA6-2162-441A-8A49-D3BA41FC4178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{54CEFC72-1866-489F-A6F5-29C11B0AF2ED}"/>
+    <workbookView xWindow="29820" yWindow="0" windowWidth="21885" windowHeight="20985" xr2:uid="{54CEFC72-1866-489F-A6F5-29C11B0AF2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>SITE</t>
   </si>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>G11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copies/host DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC (copies/host DNA *h) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dose (mg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC (copies/host DNA *day) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CL = mg/day </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +237,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,20 +277,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,13 +633,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5D8DEF-A8FC-44FD-8D29-0EBB81909706}">
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -642,7 +702,7 @@
       <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S3" t="s">
@@ -729,7 +789,7 @@
         <v>123.331249999999</v>
       </c>
       <c r="D4">
-        <v>102.776041666666</v>
+        <v>205.552083333333</v>
       </c>
       <c r="E4">
         <v>336</v>
@@ -770,7 +830,7 @@
       <c r="Q4">
         <v>0.94607226815270096</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>113668.020225798</v>
       </c>
       <c r="S4">
@@ -780,13 +840,13 @@
         <v>116933.113152776</v>
       </c>
       <c r="U4">
-        <v>97444.260960646905</v>
+        <v>194888.521921293</v>
       </c>
       <c r="V4">
         <v>116380.636581454</v>
       </c>
       <c r="W4">
-        <v>96983.863817878606</v>
+        <v>193967.72763575701</v>
       </c>
       <c r="X4">
         <v>2.79227400942594</v>
@@ -819,16 +879,16 @@
         <v>59.480839991237701</v>
       </c>
       <c r="AH4">
-        <v>3.7360042495455099</v>
+        <v>1.8680021247727501</v>
       </c>
       <c r="AI4">
-        <v>3.7537396295783299</v>
+        <v>1.87686981478916</v>
       </c>
       <c r="AJ4">
-        <v>1.026227702013E-2</v>
+        <v>5.1311385100650002E-3</v>
       </c>
       <c r="AK4">
-        <v>1.03109936089765E-2</v>
+        <v>5.1554968044882797E-3</v>
       </c>
       <c r="AL4">
         <v>285.00644821336601</v>
@@ -840,10 +900,10 @@
         <v>318.17499945527601</v>
       </c>
       <c r="AO4">
-        <v>3.3325901487535798</v>
+        <v>1.6662950743767899</v>
       </c>
       <c r="AP4">
-        <v>3.2807003859194701</v>
+        <v>1.6403501929597299</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -857,7 +917,7 @@
         <v>859.88750000000005</v>
       </c>
       <c r="D5">
-        <v>716.57291666666595</v>
+        <v>1433.1458333333301</v>
       </c>
       <c r="E5">
         <v>336</v>
@@ -898,7 +958,7 @@
       <c r="Q5">
         <v>0.79763668011639999</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>900388.36824717699</v>
       </c>
       <c r="S5">
@@ -908,13 +968,13 @@
         <v>903430.26911649504</v>
       </c>
       <c r="U5">
-        <v>752858.55759707897</v>
+        <v>1505717.11519415</v>
       </c>
       <c r="V5">
         <v>902003.92542079405</v>
       </c>
       <c r="W5">
-        <v>751669.93785066204</v>
+        <v>1503339.8757013199</v>
       </c>
       <c r="X5">
         <v>0.33670566210856001</v>
@@ -947,16 +1007,16 @@
         <v>74.335383178557507</v>
       </c>
       <c r="AH5">
-        <v>0.28944735177769199</v>
+        <v>0.14472367588884599</v>
       </c>
       <c r="AI5">
-        <v>0.28990505644372599</v>
-      </c>
-      <c r="AJ5">
-        <v>1.32827074874692E-3</v>
-      </c>
-      <c r="AK5">
-        <v>1.3303711504805099E-3</v>
+        <v>0.144952528221863</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>6.6413537437346002E-4</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>6.6518557524025495E-4</v>
       </c>
       <c r="AL5">
         <v>174.712620335422</v>
@@ -968,10 +1028,10 @@
         <v>177.19720086257499</v>
       </c>
       <c r="AO5">
-        <v>0.238269726052455</v>
+        <v>0.119134863026227</v>
       </c>
       <c r="AP5">
-        <v>0.23573804397347101</v>
+        <v>0.117869021986735</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -985,7 +1045,7 @@
         <v>330.4375</v>
       </c>
       <c r="D6">
-        <v>275.36458333333297</v>
+        <v>550.72916666666595</v>
       </c>
       <c r="E6">
         <v>336</v>
@@ -1026,7 +1086,7 @@
       <c r="Q6">
         <v>0.107494896865093</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>366120.04075264698</v>
       </c>
       <c r="S6">
@@ -1036,13 +1096,13 @@
         <v>387302.64914057998</v>
       </c>
       <c r="U6">
-        <v>322752.20761714998</v>
+        <v>645504.41523429996</v>
       </c>
       <c r="V6">
         <v>372600.37799769099</v>
       </c>
       <c r="W6">
-        <v>310500.31499807601</v>
+        <v>621000.62999615201</v>
       </c>
       <c r="X6">
         <v>5.46926503986922</v>
@@ -1075,16 +1135,16 @@
         <v>72.823103457594499</v>
       </c>
       <c r="AH6">
-        <v>1.26743327610894</v>
+        <v>0.63371663805447298</v>
       </c>
       <c r="AI6">
-        <v>1.31744435709874</v>
+        <v>0.65872217854937398</v>
       </c>
       <c r="AJ6">
-        <v>3.0983521611917301E-3</v>
+        <v>1.54917608059586E-3</v>
       </c>
       <c r="AK6">
-        <v>3.2206086489999001E-3</v>
+        <v>1.61030432449995E-3</v>
       </c>
       <c r="AL6">
         <v>191.779226899619</v>
@@ -1096,10 +1156,10 @@
         <v>218.933441380012</v>
       </c>
       <c r="AO6">
-        <v>0.85877084825933103</v>
+        <v>0.42938542412966502</v>
       </c>
       <c r="AP6">
-        <v>0.70509893486378195</v>
+        <v>0.35254946743189097</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
@@ -1113,7 +1173,7 @@
         <v>111.51</v>
       </c>
       <c r="D7">
-        <v>92.924999999999997</v>
+        <v>185.85</v>
       </c>
       <c r="E7">
         <v>336</v>
@@ -1154,7 +1214,7 @@
       <c r="Q7">
         <v>0.27277961124464101</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>188358.93328739799</v>
       </c>
       <c r="S7">
@@ -1164,13 +1224,13 @@
         <v>195697.65362473499</v>
       </c>
       <c r="U7">
-        <v>163081.378020612</v>
+        <v>326162.75604122499</v>
       </c>
       <c r="V7">
         <v>193358.65187718999</v>
       </c>
       <c r="W7">
-        <v>161132.20989765899</v>
+        <v>322264.41979531798</v>
       </c>
       <c r="X7">
         <v>3.75002980434776</v>
@@ -1203,16 +1263,16 @@
         <v>83.513880408082699</v>
       </c>
       <c r="AH7">
-        <v>2.3428534505882199</v>
+        <v>1.17142672529411</v>
       </c>
       <c r="AI7">
-        <v>2.3711942476612502</v>
+        <v>1.18559712383062</v>
       </c>
       <c r="AJ7">
-        <v>6.1319079599241903E-3</v>
+        <v>3.0659539799620899E-3</v>
       </c>
       <c r="AK7">
-        <v>6.2060838154899996E-3</v>
+        <v>3.1030419077449998E-3</v>
       </c>
       <c r="AL7">
         <v>101.64628385735701</v>
@@ -1224,10 +1284,10 @@
         <v>134.96149777241601</v>
       </c>
       <c r="AO7">
-        <v>0.91955792492501698</v>
+        <v>0.45977896246250799</v>
       </c>
       <c r="AP7">
-        <v>0.83758236703968603</v>
+        <v>0.41879118351984301</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
@@ -1241,7 +1301,7 @@
         <v>698.73749999999995</v>
       </c>
       <c r="D8">
-        <v>582.28125</v>
+        <v>1164.5625</v>
       </c>
       <c r="E8">
         <v>336</v>
@@ -1282,7 +1342,7 @@
       <c r="Q8">
         <v>0.88234319235209202</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>1250417.3885071799</v>
       </c>
       <c r="S8">
@@ -1292,13 +1352,13 @@
         <v>1251213.81701012</v>
       </c>
       <c r="U8">
-        <v>1042678.18084177</v>
+        <v>2085356.36168354</v>
       </c>
       <c r="V8">
         <v>1250841.75010409</v>
       </c>
       <c r="W8">
-        <v>1042368.12508674</v>
+        <v>2084736.25017349</v>
       </c>
       <c r="X8">
         <v>6.3652470274433395E-2</v>
@@ -1331,16 +1391,16 @@
         <v>88.142636941517694</v>
       </c>
       <c r="AH8">
-        <v>0.17874677196352101</v>
+        <v>8.9373385981760894E-2</v>
       </c>
       <c r="AI8">
-        <v>0.17879994076637001</v>
+        <v>8.9399970383185395E-2</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9.5906869288535802E-4</v>
+        <v>4.7953434644267901E-4</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.5935397095606395E-4</v>
+        <v>4.7967698547803198E-4</v>
       </c>
       <c r="AL8">
         <v>80.352923581742701</v>
@@ -1352,10 +1412,10 @@
         <v>80.844859381148893</v>
       </c>
       <c r="AO8">
-        <v>7.7949169911485802E-2</v>
+        <v>3.8974584955742901E-2</v>
       </c>
       <c r="AP8">
-        <v>7.7558836878689794E-2</v>
+        <v>3.8779418439344897E-2</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
@@ -1369,7 +1429,7 @@
         <v>22880.33</v>
       </c>
       <c r="D9">
-        <v>19066.9416666666</v>
+        <v>38133.883333333302</v>
       </c>
       <c r="E9">
         <v>336</v>
@@ -1410,7 +1470,7 @@
       <c r="Q9">
         <v>0.984445638464442</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>6114951396.0886202</v>
       </c>
       <c r="S9">
@@ -1420,13 +1480,13 @@
         <v>6114951718.3907804</v>
       </c>
       <c r="U9">
-        <v>5095793098.6589899</v>
+        <v>10191586197.3179</v>
       </c>
       <c r="V9">
         <v>6114951698.5204401</v>
       </c>
       <c r="W9">
-        <v>5095793082.1003599</v>
+        <v>10191586164.200701</v>
       </c>
       <c r="X9" s="1">
         <v>5.2707228914705602E-6</v>
@@ -1459,16 +1519,16 @@
         <v>99.937033216586997</v>
       </c>
       <c r="AH9" s="1">
-        <v>5.29646962570502E-5</v>
+        <v>2.64823481285251E-5</v>
       </c>
       <c r="AI9" s="1">
-        <v>5.29646964291573E-5</v>
+        <v>2.6482348214578599E-5</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1.9624030658998999E-7</v>
+        <v>9.8120153294995404E-8</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.9624030722766699E-7</v>
+        <v>9.8120153613833799E-8</v>
       </c>
       <c r="AL9">
         <v>0.42318887331389898</v>
@@ -1480,911 +1540,1163 @@
         <v>0.42326867212061098</v>
       </c>
       <c r="AO9" s="1">
-        <v>8.3063402861853704E-8</v>
+        <v>4.1531701430926799E-8</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.3062374256795706E-8</v>
+        <v>4.15311871283978E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>0.6</v>
+      </c>
+      <c r="O15" s="3">
+        <v>113668.020225798</v>
+      </c>
+      <c r="R15">
+        <f>O15/24</f>
+        <v>4736.1675094082502</v>
+      </c>
+      <c r="AJ15">
+        <f>N15/R15</f>
+        <v>1.2668470842893933E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>0.6</v>
+      </c>
+      <c r="O16" s="3">
+        <v>900388.36824717699</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R20" si="0">O16/24</f>
+        <v>37516.182010299039</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" ref="AJ16:AJ20" si="1">N16/R16</f>
+        <v>1.5993098653676605E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0.6</v>
+      </c>
+      <c r="O17" s="3">
+        <v>366120.04075264698</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>15255.001698026957</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="1"/>
+        <v>3.9331362387039424E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18" s="3">
+        <v>188358.93328739799</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>7848.2888869749158</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="1"/>
+        <v>7.6449785251376875E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>0.6</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1250417.3885071799</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>52100.724521132499</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="1"/>
+        <v>1.1516154631527914E-5</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" t="s">
-        <v>22</v>
-      </c>
-      <c r="X22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>41</v>
+      <c r="N20">
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6114951396.0886202</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>254789641.50369251</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="1"/>
+        <v>2.3548838031992935E-9</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>4.7098333922393598</v>
-      </c>
-      <c r="C23">
-        <v>83.42</v>
-      </c>
-      <c r="D23">
-        <v>34.758333333333297</v>
-      </c>
-      <c r="E23">
-        <v>336</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23">
-        <v>18.43</v>
-      </c>
-      <c r="H23">
-        <v>18.305694452862699</v>
-      </c>
-      <c r="I23">
-        <v>1344</v>
-      </c>
-      <c r="J23">
-        <v>516.79732063254005</v>
-      </c>
-      <c r="K23">
-        <v>1.34123601823546E-3</v>
-      </c>
-      <c r="L23">
-        <v>336</v>
-      </c>
-      <c r="M23">
-        <v>1344</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>-0.93178060753290803</v>
-      </c>
-      <c r="P23">
-        <v>0.86821510057439599</v>
-      </c>
-      <c r="Q23">
-        <v>0.80232265086159504</v>
-      </c>
-      <c r="R23">
-        <v>89129.864989152906</v>
-      </c>
-      <c r="S23">
-        <v>89129.864989152906</v>
-      </c>
-      <c r="T23">
-        <v>102870.92155893199</v>
-      </c>
-      <c r="U23">
-        <v>42862.883982888699</v>
-      </c>
-      <c r="V23">
-        <v>102778.24171329199</v>
-      </c>
-      <c r="W23">
-        <v>42824.267380538498</v>
-      </c>
-      <c r="X23">
-        <v>13.357571179050799</v>
-      </c>
-      <c r="Y23">
-        <v>13.279441734577199</v>
-      </c>
-      <c r="Z23">
-        <v>32269110.719999898</v>
-      </c>
-      <c r="AA23">
-        <v>60982160.508541398</v>
-      </c>
-      <c r="AB23">
-        <v>60788498.470345803</v>
-      </c>
-      <c r="AC23">
-        <v>47.084343272029102</v>
-      </c>
-      <c r="AD23">
-        <v>46.915762797230897</v>
-      </c>
-      <c r="AE23">
-        <v>213.13074398305301</v>
-      </c>
-      <c r="AF23">
-        <v>48.430133835839698</v>
-      </c>
-      <c r="AG23">
-        <v>48.473805504603597</v>
-      </c>
-      <c r="AH23">
-        <v>17.394558236419901</v>
-      </c>
-      <c r="AI23">
-        <v>17.410243705887599</v>
-      </c>
-      <c r="AJ23">
-        <v>2.33302080279808E-2</v>
-      </c>
-      <c r="AK23">
-        <v>2.3351245944593702E-2</v>
-      </c>
-      <c r="AL23">
-        <v>362.045995738096</v>
-      </c>
-      <c r="AM23">
-        <v>592.80270444166104</v>
-      </c>
-      <c r="AN23">
-        <v>591.45299099316901</v>
-      </c>
-      <c r="AO23">
-        <v>13.8302104141735</v>
-      </c>
-      <c r="AP23">
-        <v>13.811164257347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>6.6780609226061403</v>
-      </c>
-      <c r="C24">
-        <v>886.626249999999</v>
-      </c>
-      <c r="D24">
-        <v>369.42760416666601</v>
-      </c>
-      <c r="E24">
-        <v>336</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24">
-        <v>20.569333333333301</v>
-      </c>
-      <c r="H24">
-        <v>7.9319457966792397</v>
-      </c>
-      <c r="I24">
-        <v>1344</v>
-      </c>
-      <c r="J24">
-        <v>202.20467619233199</v>
-      </c>
-      <c r="K24">
-        <v>3.4279483225236398E-3</v>
-      </c>
-      <c r="L24">
-        <v>336</v>
-      </c>
-      <c r="M24">
-        <v>1344</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>-0.74316051007220996</v>
-      </c>
-      <c r="P24">
-        <v>0.55228754373078803</v>
-      </c>
-      <c r="Q24">
-        <v>0.32843131559618199</v>
-      </c>
-      <c r="R24">
-        <v>8301609.9194346499</v>
-      </c>
-      <c r="S24">
-        <v>8301609.9194346499</v>
-      </c>
-      <c r="T24">
-        <v>8307610.39884625</v>
-      </c>
-      <c r="U24">
-        <v>3461504.3328526001</v>
-      </c>
-      <c r="V24">
-        <v>8303923.8241526904</v>
-      </c>
-      <c r="W24">
-        <v>3459968.2600636198</v>
-      </c>
-      <c r="X24">
-        <v>7.2228705048971095E-2</v>
-      </c>
-      <c r="Y24">
-        <v>2.7865196827892E-2</v>
-      </c>
-      <c r="Z24">
-        <v>112933857.792</v>
-      </c>
-      <c r="AA24">
-        <v>122748960.07651401</v>
-      </c>
-      <c r="AB24">
-        <v>116718757.28523999</v>
-      </c>
-      <c r="AC24">
-        <v>7.9960777495765099</v>
-      </c>
-      <c r="AD24">
-        <v>3.2427517061298898</v>
-      </c>
-      <c r="AE24">
-        <v>47561.123758539601</v>
-      </c>
-      <c r="AF24">
-        <v>97.973082639563998</v>
-      </c>
-      <c r="AG24">
-        <v>98.0165783525254</v>
-      </c>
-      <c r="AH24">
-        <v>8.4275406163317607E-2</v>
-      </c>
-      <c r="AI24">
-        <v>8.4312820714104703E-2</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>2.8889173718754299E-4</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>2.8901999233415198E-4</v>
-      </c>
-      <c r="AL24">
-        <v>13.6038502035146</v>
-      </c>
-      <c r="AM24">
-        <v>14.775483464362001</v>
-      </c>
-      <c r="AN24">
-        <v>14.0558559732633</v>
-      </c>
-      <c r="AO24">
-        <v>4.2685150858053703E-3</v>
-      </c>
-      <c r="AP24">
-        <v>4.06242338564253E-3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>5.8081739058819997</v>
-      </c>
-      <c r="C25">
-        <v>1180.5625</v>
-      </c>
-      <c r="D25">
-        <v>491.901041666666</v>
-      </c>
-      <c r="E25">
-        <v>336</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25">
-        <v>109.707166666666</v>
-      </c>
-      <c r="H25">
-        <v>15.9529244641011</v>
-      </c>
-      <c r="I25">
-        <v>1344</v>
-      </c>
-      <c r="J25">
-        <v>306.59209445012698</v>
-      </c>
-      <c r="K25">
-        <v>2.2608123076464301E-3</v>
-      </c>
-      <c r="L25">
-        <v>336</v>
-      </c>
-      <c r="M25">
-        <v>1344</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>-0.39425974547394799</v>
-      </c>
-      <c r="P25">
-        <v>0.15544074690118201</v>
-      </c>
-      <c r="Q25">
-        <v>-0.266838879648225</v>
-      </c>
-      <c r="R25">
-        <v>27243308.030921198</v>
-      </c>
-      <c r="S25">
-        <v>27243308.030921198</v>
-      </c>
-      <c r="T25">
-        <v>27291833.5835713</v>
-      </c>
-      <c r="U25">
-        <v>11371597.326487999</v>
-      </c>
-      <c r="V25">
-        <v>27250364.310830001</v>
-      </c>
-      <c r="W25">
-        <v>11354318.4628458</v>
-      </c>
-      <c r="X25">
-        <v>0.17780246424813301</v>
-      </c>
-      <c r="Y25">
-        <v>2.5894258984404599E-2</v>
-      </c>
-      <c r="Z25">
-        <v>161873267.13600001</v>
-      </c>
-      <c r="AA25">
-        <v>248555378.688241</v>
-      </c>
-      <c r="AB25">
-        <v>174478033.26019701</v>
-      </c>
-      <c r="AC25">
-        <v>34.874365628178701</v>
-      </c>
-      <c r="AD25">
-        <v>7.2242710951470999</v>
-      </c>
-      <c r="AE25">
-        <v>159663.32980310201</v>
-      </c>
-      <c r="AF25">
-        <v>99.010474412343399</v>
-      </c>
-      <c r="AG25">
-        <v>99.161147347237502</v>
-      </c>
-      <c r="AH25">
-        <v>3.8896812957723903E-2</v>
-      </c>
-      <c r="AI25">
-        <v>3.8956005654265803E-2</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>8.7938393463043394E-5</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>8.8072217039908296E-5</v>
-      </c>
-      <c r="AL25">
-        <v>5.9417625404474803</v>
-      </c>
-      <c r="AM25">
-        <v>9.1073169535176497</v>
-      </c>
-      <c r="AN25">
-        <v>6.4027780058285204</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>8.0088282165108099E-4</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>5.6390685418768096E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>5.4106499683201896</v>
-      </c>
-      <c r="C26">
-        <v>85.144374999999997</v>
-      </c>
-      <c r="D26">
-        <v>35.476822916666599</v>
-      </c>
-      <c r="E26">
-        <v>336</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26">
-        <v>0.57908333333333295</v>
-      </c>
-      <c r="H26">
-        <v>0.42950123966699499</v>
-      </c>
-      <c r="I26">
-        <v>1344</v>
-      </c>
-      <c r="J26">
-        <v>148.916636839349</v>
-      </c>
-      <c r="K26">
-        <v>4.6545986752823702E-3</v>
-      </c>
-      <c r="L26">
-        <v>336</v>
-      </c>
-      <c r="M26">
-        <v>1344</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>-0.94936228908736398</v>
-      </c>
-      <c r="P26">
-        <v>0.90128875594119995</v>
-      </c>
-      <c r="Q26">
-        <v>0.80257751188240001</v>
-      </c>
-      <c r="R26">
-        <v>334531.50895390601</v>
-      </c>
-      <c r="S26">
-        <v>334531.50895390601</v>
-      </c>
-      <c r="T26">
-        <v>334655.919966268</v>
-      </c>
-      <c r="U26">
-        <v>139439.96665261101</v>
-      </c>
-      <c r="V26">
-        <v>334623.78355578397</v>
-      </c>
-      <c r="W26">
-        <v>139426.57648157701</v>
-      </c>
-      <c r="X26">
-        <v>3.71757990640375E-2</v>
-      </c>
-      <c r="Y26">
-        <v>2.75756256468584E-2</v>
-      </c>
-      <c r="Z26">
-        <v>10646379.7439999</v>
-      </c>
-      <c r="AA26">
-        <v>10840316.767433601</v>
-      </c>
-      <c r="AB26">
-        <v>10790221.203747399</v>
-      </c>
-      <c r="AC26">
-        <v>1.7890346527168901</v>
-      </c>
-      <c r="AD26">
-        <v>1.3330723905594899</v>
-      </c>
-      <c r="AE26">
-        <v>1812.39114853515</v>
-      </c>
-      <c r="AF26">
-        <v>95.257830187506499</v>
-      </c>
-      <c r="AG26">
-        <v>95.266978505358196</v>
-      </c>
-      <c r="AH26">
-        <v>1.5407440107127099</v>
-      </c>
-      <c r="AI26">
-        <v>1.54089197981835</v>
-      </c>
-      <c r="AJ26">
-        <v>7.1715450312126701E-3</v>
-      </c>
-      <c r="AK26">
-        <v>7.1722337680157596E-3</v>
-      </c>
-      <c r="AL26">
-        <v>31.8247443336254</v>
-      </c>
-      <c r="AM26">
-        <v>32.392424937608403</v>
-      </c>
-      <c r="AN26">
-        <v>32.245828700782099</v>
-      </c>
-      <c r="AO26">
-        <v>0.232303734110235</v>
-      </c>
-      <c r="AP26">
-        <v>0.23127462148540201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>7.3031459674410204</v>
-      </c>
-      <c r="C27">
-        <v>897.63750000000005</v>
-      </c>
-      <c r="D27">
-        <v>374.015625</v>
-      </c>
-      <c r="E27">
-        <v>336</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27">
-        <v>11.7826666666666</v>
-      </c>
-      <c r="H27">
-        <v>5.4324885112715604</v>
-      </c>
-      <c r="I27">
-        <v>1344</v>
-      </c>
-      <c r="J27">
-        <v>166.03663235217101</v>
-      </c>
-      <c r="K27">
-        <v>4.1746641734442501E-3</v>
-      </c>
-      <c r="L27">
-        <v>336</v>
-      </c>
-      <c r="M27">
-        <v>1344</v>
-      </c>
-      <c r="N27">
-        <v>4</v>
-      </c>
-      <c r="O27">
-        <v>-0.87954919663467102</v>
-      </c>
-      <c r="P27">
-        <v>0.77360678930069604</v>
-      </c>
-      <c r="Q27">
-        <v>0.66041018395104401</v>
-      </c>
-      <c r="R27">
-        <v>4516251.9201023299</v>
-      </c>
-      <c r="S27">
-        <v>4516251.9201023299</v>
-      </c>
-      <c r="T27">
-        <v>4519074.3427397301</v>
-      </c>
-      <c r="U27">
-        <v>1882947.6428082199</v>
-      </c>
-      <c r="V27">
-        <v>4517553.2196286097</v>
-      </c>
-      <c r="W27">
-        <v>1882313.8415119201</v>
-      </c>
-      <c r="X27">
-        <v>6.2455769109726E-2</v>
-      </c>
-      <c r="Y27">
-        <v>2.8805405559451099E-2</v>
-      </c>
-      <c r="Z27">
-        <v>115189849.152</v>
-      </c>
-      <c r="AA27">
-        <v>119659268.933377</v>
-      </c>
-      <c r="AB27">
-        <v>117250509.29806601</v>
-      </c>
-      <c r="AC27">
-        <v>3.7351220855826002</v>
-      </c>
-      <c r="AD27">
-        <v>1.7574850279137599</v>
-      </c>
-      <c r="AE27">
-        <v>24987.820072037699</v>
-      </c>
-      <c r="AF27">
-        <v>96.231142536722601</v>
-      </c>
-      <c r="AG27">
-        <v>96.263544903181995</v>
-      </c>
-      <c r="AH27">
-        <v>0.12721555323924499</v>
-      </c>
-      <c r="AI27">
-        <v>0.127258388488487</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>5.3108221241276901E-4</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>5.3126103519313995E-4</v>
-      </c>
-      <c r="AL27">
-        <v>25.505629710175601</v>
-      </c>
-      <c r="AM27">
-        <v>26.478712200346902</v>
-      </c>
-      <c r="AN27">
-        <v>25.954427894422299</v>
-      </c>
-      <c r="AO27">
-        <v>1.40623730572012E-2</v>
-      </c>
-      <c r="AP27">
-        <v>1.3788576231036499E-2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>4.7098333922393598</v>
+      </c>
+      <c r="C29">
+        <v>83.42</v>
+      </c>
+      <c r="D29">
+        <v>69.516666666666595</v>
+      </c>
+      <c r="E29">
+        <v>336</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>18.43</v>
+      </c>
+      <c r="H29">
+        <v>18.305694452862699</v>
+      </c>
+      <c r="I29">
+        <v>1344</v>
+      </c>
+      <c r="J29">
+        <v>516.79732063254005</v>
+      </c>
+      <c r="K29">
+        <v>1.34123601823546E-3</v>
+      </c>
+      <c r="L29">
+        <v>336</v>
+      </c>
+      <c r="M29">
+        <v>1344</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>-0.93178060753290803</v>
+      </c>
+      <c r="P29">
+        <v>0.86821510057439599</v>
+      </c>
+      <c r="Q29">
+        <v>0.80232265086159504</v>
+      </c>
+      <c r="R29" s="3">
+        <v>89129.864989152906</v>
+      </c>
+      <c r="S29">
+        <v>89129.864989152906</v>
+      </c>
+      <c r="T29">
+        <v>102870.92155893199</v>
+      </c>
+      <c r="U29">
+        <v>85725.767965777399</v>
+      </c>
+      <c r="V29">
+        <v>102778.24171329199</v>
+      </c>
+      <c r="W29">
+        <v>85648.534761077099</v>
+      </c>
+      <c r="X29">
+        <v>13.357571179050799</v>
+      </c>
+      <c r="Y29">
+        <v>13.279441734577199</v>
+      </c>
+      <c r="Z29">
+        <v>32269110.719999898</v>
+      </c>
+      <c r="AA29">
+        <v>60982160.508541398</v>
+      </c>
+      <c r="AB29">
+        <v>60788498.470345803</v>
+      </c>
+      <c r="AC29">
+        <v>47.084343272029102</v>
+      </c>
+      <c r="AD29">
+        <v>46.915762797230897</v>
+      </c>
+      <c r="AE29">
+        <v>213.13074398305301</v>
+      </c>
+      <c r="AF29">
+        <v>48.430133835839698</v>
+      </c>
+      <c r="AG29">
+        <v>48.473805504603597</v>
+      </c>
+      <c r="AH29">
+        <v>8.6972791182099698</v>
+      </c>
+      <c r="AI29">
+        <v>8.7051218529437993</v>
+      </c>
+      <c r="AJ29">
+        <v>1.16651040139904E-2</v>
+      </c>
+      <c r="AK29">
+        <v>1.16756229722968E-2</v>
+      </c>
+      <c r="AL29">
+        <v>362.045995738096</v>
+      </c>
+      <c r="AM29">
+        <v>592.80270444166104</v>
+      </c>
+      <c r="AN29">
+        <v>591.45299099316901</v>
+      </c>
+      <c r="AO29">
+        <v>6.91510520708679</v>
+      </c>
+      <c r="AP29">
+        <v>6.9055821286735402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>6.6780609226061403</v>
+      </c>
+      <c r="C30">
+        <v>886.626249999999</v>
+      </c>
+      <c r="D30">
+        <v>738.85520833333305</v>
+      </c>
+      <c r="E30">
+        <v>336</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>20.569333333333301</v>
+      </c>
+      <c r="H30">
+        <v>7.9319457966792397</v>
+      </c>
+      <c r="I30">
+        <v>1344</v>
+      </c>
+      <c r="J30">
+        <v>202.20467619233199</v>
+      </c>
+      <c r="K30">
+        <v>3.4279483225236398E-3</v>
+      </c>
+      <c r="L30">
+        <v>336</v>
+      </c>
+      <c r="M30">
+        <v>1344</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>-0.74316051007220996</v>
+      </c>
+      <c r="P30">
+        <v>0.55228754373078803</v>
+      </c>
+      <c r="Q30">
+        <v>0.32843131559618199</v>
+      </c>
+      <c r="R30" s="3">
+        <v>8301609.9194346499</v>
+      </c>
+      <c r="S30">
+        <v>8301609.9194346499</v>
+      </c>
+      <c r="T30">
+        <v>8307610.39884625</v>
+      </c>
+      <c r="U30">
+        <v>6923008.6657052096</v>
+      </c>
+      <c r="V30">
+        <v>8303923.8241526904</v>
+      </c>
+      <c r="W30">
+        <v>6919936.5201272396</v>
+      </c>
+      <c r="X30">
+        <v>7.2228705048971095E-2</v>
+      </c>
+      <c r="Y30">
+        <v>2.7865196827892E-2</v>
+      </c>
+      <c r="Z30">
+        <v>112933857.792</v>
+      </c>
+      <c r="AA30">
+        <v>122748960.07651401</v>
+      </c>
+      <c r="AB30">
+        <v>116718757.28523999</v>
+      </c>
+      <c r="AC30">
+        <v>7.9960777495765099</v>
+      </c>
+      <c r="AD30">
+        <v>3.2427517061298898</v>
+      </c>
+      <c r="AE30">
+        <v>47561.123758539601</v>
+      </c>
+      <c r="AF30">
+        <v>97.973082639563998</v>
+      </c>
+      <c r="AG30">
+        <v>98.0165783525254</v>
+      </c>
+      <c r="AH30">
+        <v>4.2137703081658803E-2</v>
+      </c>
+      <c r="AI30">
+        <v>4.2156410357052303E-2</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>1.4444586859377101E-4</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>1.4450999616707599E-4</v>
+      </c>
+      <c r="AL30">
+        <v>13.6038502035146</v>
+      </c>
+      <c r="AM30">
+        <v>14.775483464362001</v>
+      </c>
+      <c r="AN30">
+        <v>14.0558559732633</v>
+      </c>
+      <c r="AO30">
+        <v>2.1342575429026799E-3</v>
+      </c>
+      <c r="AP30">
+        <v>2.0312116928212602E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>5.8081739058819997</v>
+      </c>
+      <c r="C31">
+        <v>1180.5625</v>
+      </c>
+      <c r="D31">
+        <v>983.80208333333303</v>
+      </c>
+      <c r="E31">
+        <v>336</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31">
+        <v>109.707166666666</v>
+      </c>
+      <c r="H31">
+        <v>15.9529244641011</v>
+      </c>
+      <c r="I31">
+        <v>1344</v>
+      </c>
+      <c r="J31">
+        <v>306.59209445012698</v>
+      </c>
+      <c r="K31">
+        <v>2.2608123076464301E-3</v>
+      </c>
+      <c r="L31">
+        <v>336</v>
+      </c>
+      <c r="M31">
+        <v>1344</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>-0.39425974547394799</v>
+      </c>
+      <c r="P31">
+        <v>0.15544074690118201</v>
+      </c>
+      <c r="Q31">
+        <v>-0.266838879648225</v>
+      </c>
+      <c r="R31" s="3">
+        <v>27243308.030921198</v>
+      </c>
+      <c r="S31">
+        <v>27243308.030921198</v>
+      </c>
+      <c r="T31">
+        <v>27291833.5835713</v>
+      </c>
+      <c r="U31">
+        <v>22743194.652976099</v>
+      </c>
+      <c r="V31">
+        <v>27250364.310830001</v>
+      </c>
+      <c r="W31">
+        <v>22708636.925691701</v>
+      </c>
+      <c r="X31">
+        <v>0.17780246424813301</v>
+      </c>
+      <c r="Y31">
+        <v>2.5894258984404599E-2</v>
+      </c>
+      <c r="Z31">
+        <v>161873267.13600001</v>
+      </c>
+      <c r="AA31">
+        <v>248555378.688241</v>
+      </c>
+      <c r="AB31">
+        <v>174478033.26019701</v>
+      </c>
+      <c r="AC31">
+        <v>34.874365628178701</v>
+      </c>
+      <c r="AD31">
+        <v>7.2242710951470999</v>
+      </c>
+      <c r="AE31">
+        <v>159663.32980310201</v>
+      </c>
+      <c r="AF31">
+        <v>99.010474412343399</v>
+      </c>
+      <c r="AG31">
+        <v>99.161147347237502</v>
+      </c>
+      <c r="AH31">
+        <v>1.9448406478861899E-2</v>
+      </c>
+      <c r="AI31">
+        <v>1.9478002827132902E-2</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>4.3969196731521697E-5</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>4.4036108519954101E-5</v>
+      </c>
+      <c r="AL31">
+        <v>5.9417625404474803</v>
+      </c>
+      <c r="AM31">
+        <v>9.1073169535176497</v>
+      </c>
+      <c r="AN31">
+        <v>6.4027780058285204</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>4.0044141082554001E-4</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>2.8195342709383999E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>5.4106499683201896</v>
+      </c>
+      <c r="C32">
+        <v>85.144374999999997</v>
+      </c>
+      <c r="D32">
+        <v>70.953645833333297</v>
+      </c>
+      <c r="E32">
+        <v>336</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32">
+        <v>0.57908333333333295</v>
+      </c>
+      <c r="H32">
+        <v>0.42950123966699499</v>
+      </c>
+      <c r="I32">
+        <v>1344</v>
+      </c>
+      <c r="J32">
+        <v>148.916636839349</v>
+      </c>
+      <c r="K32">
+        <v>4.6545986752823702E-3</v>
+      </c>
+      <c r="L32">
+        <v>336</v>
+      </c>
+      <c r="M32">
+        <v>1344</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>-0.94936228908736398</v>
+      </c>
+      <c r="P32">
+        <v>0.90128875594119995</v>
+      </c>
+      <c r="Q32">
+        <v>0.80257751188240001</v>
+      </c>
+      <c r="R32" s="3">
+        <v>334531.50895390601</v>
+      </c>
+      <c r="S32">
+        <v>334531.50895390601</v>
+      </c>
+      <c r="T32">
+        <v>334655.919966268</v>
+      </c>
+      <c r="U32">
+        <v>278879.93330522301</v>
+      </c>
+      <c r="V32">
+        <v>334623.78355578397</v>
+      </c>
+      <c r="W32">
+        <v>278853.15296315402</v>
+      </c>
+      <c r="X32">
+        <v>3.71757990640375E-2</v>
+      </c>
+      <c r="Y32">
+        <v>2.75756256468584E-2</v>
+      </c>
+      <c r="Z32">
+        <v>10646379.7439999</v>
+      </c>
+      <c r="AA32">
+        <v>10840316.767433601</v>
+      </c>
+      <c r="AB32">
+        <v>10790221.203747399</v>
+      </c>
+      <c r="AC32">
+        <v>1.7890346527168901</v>
+      </c>
+      <c r="AD32">
+        <v>1.3330723905594899</v>
+      </c>
+      <c r="AE32">
+        <v>1812.39114853515</v>
+      </c>
+      <c r="AF32">
+        <v>95.257830187506499</v>
+      </c>
+      <c r="AG32">
+        <v>95.266978505358196</v>
+      </c>
+      <c r="AH32">
+        <v>0.77037200535635797</v>
+      </c>
+      <c r="AI32">
+        <v>0.77044598990917801</v>
+      </c>
+      <c r="AJ32">
+        <v>3.5857725156063299E-3</v>
+      </c>
+      <c r="AK32">
+        <v>3.5861168840078798E-3</v>
+      </c>
+      <c r="AL32">
+        <v>31.8247443336254</v>
+      </c>
+      <c r="AM32">
+        <v>32.392424937608403</v>
+      </c>
+      <c r="AN32">
+        <v>32.245828700782099</v>
+      </c>
+      <c r="AO32">
+        <v>0.116151867055117</v>
+      </c>
+      <c r="AP32">
+        <v>0.115637310742701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>7.3031459674410204</v>
+      </c>
+      <c r="C33">
+        <v>897.63750000000005</v>
+      </c>
+      <c r="D33">
+        <v>748.03125</v>
+      </c>
+      <c r="E33">
+        <v>336</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>11.7826666666666</v>
+      </c>
+      <c r="H33">
+        <v>5.4324885112715604</v>
+      </c>
+      <c r="I33">
+        <v>1344</v>
+      </c>
+      <c r="J33">
+        <v>166.03663235217101</v>
+      </c>
+      <c r="K33">
+        <v>4.1746641734442501E-3</v>
+      </c>
+      <c r="L33">
+        <v>336</v>
+      </c>
+      <c r="M33">
+        <v>1344</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>-0.87954919663467102</v>
+      </c>
+      <c r="P33">
+        <v>0.77360678930069604</v>
+      </c>
+      <c r="Q33">
+        <v>0.66041018395104401</v>
+      </c>
+      <c r="R33" s="3">
+        <v>4516251.9201023299</v>
+      </c>
+      <c r="S33">
+        <v>4516251.9201023299</v>
+      </c>
+      <c r="T33">
+        <v>4519074.3427397301</v>
+      </c>
+      <c r="U33">
+        <v>3765895.2856164398</v>
+      </c>
+      <c r="V33">
+        <v>4517553.2196286097</v>
+      </c>
+      <c r="W33">
+        <v>3764627.6830238402</v>
+      </c>
+      <c r="X33">
+        <v>6.2455769109726E-2</v>
+      </c>
+      <c r="Y33">
+        <v>2.8805405559451099E-2</v>
+      </c>
+      <c r="Z33">
+        <v>115189849.152</v>
+      </c>
+      <c r="AA33">
+        <v>119659268.933377</v>
+      </c>
+      <c r="AB33">
+        <v>117250509.29806601</v>
+      </c>
+      <c r="AC33">
+        <v>3.7351220855826002</v>
+      </c>
+      <c r="AD33">
+        <v>1.7574850279137599</v>
+      </c>
+      <c r="AE33">
+        <v>24987.820072037699</v>
+      </c>
+      <c r="AF33">
+        <v>96.231142536722601</v>
+      </c>
+      <c r="AG33">
+        <v>96.263544903181995</v>
+      </c>
+      <c r="AH33">
+        <v>6.3607776619622899E-2</v>
+      </c>
+      <c r="AI33">
+        <v>6.3629194244243806E-2</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>2.6554110620638402E-4</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>2.6563051759656998E-4</v>
+      </c>
+      <c r="AL33">
+        <v>25.505629710175601</v>
+      </c>
+      <c r="AM33">
+        <v>26.478712200346902</v>
+      </c>
+      <c r="AN33">
+        <v>25.954427894422299</v>
+      </c>
+      <c r="AO33">
+        <v>7.0311865286006104E-3</v>
+      </c>
+      <c r="AP33">
+        <v>6.8942881155182496E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>6.5610466391772402</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>271.71249999999998</v>
       </c>
-      <c r="D28">
-        <v>113.213541666666</v>
-      </c>
-      <c r="E28">
+      <c r="D34">
+        <v>226.427083333333</v>
+      </c>
+      <c r="E34">
         <v>336</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F34" t="s">
         <v>43</v>
       </c>
-      <c r="G28">
+      <c r="G34">
         <v>2.3149999999999999</v>
       </c>
-      <c r="H28">
+      <c r="H34">
         <v>1.7656013363373999</v>
       </c>
-      <c r="I28">
+      <c r="I34">
         <v>1344</v>
       </c>
-      <c r="J28">
+      <c r="J34">
         <v>155.45785780008299</v>
       </c>
-      <c r="K28">
+      <c r="K34">
         <v>4.4587465076954998E-3</v>
       </c>
-      <c r="L28">
+      <c r="L34">
         <v>336</v>
       </c>
-      <c r="M28">
+      <c r="M34">
         <v>1344</v>
       </c>
-      <c r="N28">
+      <c r="N34">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="O34">
         <v>-0.95428464992834405</v>
       </c>
-      <c r="P28">
+      <c r="P34">
         <v>0.91065919308886201</v>
       </c>
-      <c r="Q28">
+      <c r="Q34">
         <v>0.82131838617772401</v>
       </c>
-      <c r="R28">
+      <c r="R34" s="3">
         <v>888256.11000372097</v>
       </c>
-      <c r="S28">
+      <c r="S34">
         <v>888256.11000372097</v>
       </c>
-      <c r="T28">
+      <c r="T34">
         <v>888775.31422311405</v>
       </c>
-      <c r="U28">
-        <v>370323.04759296402</v>
-      </c>
-      <c r="V28">
+      <c r="U34">
+        <v>740646.09518592805</v>
+      </c>
+      <c r="V34">
         <v>888652.09603550995</v>
       </c>
-      <c r="W28">
-        <v>370271.706681462</v>
-      </c>
-      <c r="X28">
+      <c r="W34">
+        <v>740543.41336292506</v>
+      </c>
+      <c r="X34">
         <v>5.8417938829347003E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Y34">
         <v>4.4560299081730599E-2</v>
       </c>
-      <c r="Z28">
+      <c r="Z34">
         <v>34737064.32</v>
       </c>
-      <c r="AA28">
+      <c r="AA34">
         <v>35551321.020426199</v>
       </c>
-      <c r="AB28">
+      <c r="AB34">
         <v>35358080.613042802</v>
       </c>
-      <c r="AC28">
+      <c r="AC34">
         <v>2.29036974451216</v>
       </c>
-      <c r="AD28">
+      <c r="AD34">
         <v>1.7563631347505699</v>
       </c>
-      <c r="AE28">
+      <c r="AE34">
         <v>4710.1504166888099</v>
       </c>
-      <c r="AF28">
+      <c r="AF34">
         <v>94.169241270535096</v>
       </c>
-      <c r="AG28">
+      <c r="AG34">
         <v>94.182298532526701</v>
       </c>
-      <c r="AH28">
-        <v>0.60562873948346296</v>
-      </c>
-      <c r="AI28">
-        <v>0.60571271438879704</v>
-      </c>
-      <c r="AJ28">
-        <v>2.7003450271319198E-3</v>
-      </c>
-      <c r="AK28">
-        <v>2.7007194499478102E-3</v>
-      </c>
-      <c r="AL28">
+      <c r="AH34">
+        <v>0.30281436974173098</v>
+      </c>
+      <c r="AI34">
+        <v>0.30285635719439802</v>
+      </c>
+      <c r="AJ34">
+        <v>1.3501725135659599E-3</v>
+      </c>
+      <c r="AK34">
+        <v>1.3503597249738999E-3</v>
+      </c>
+      <c r="AL34">
         <v>39.107036730492602</v>
       </c>
-      <c r="AM28">
+      <c r="AM34">
         <v>40.000347052282699</v>
       </c>
-      <c r="AN28">
+      <c r="AN34">
         <v>39.788440010194897</v>
       </c>
-      <c r="AO28">
-        <v>0.108014738246182</v>
-      </c>
-      <c r="AP28">
-        <v>0.107457413818615</v>
+      <c r="AO34">
+        <v>5.4007369123091398E-2</v>
+      </c>
+      <c r="AP34">
+        <v>5.3728706909307603E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>1.2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>89129.864989152906</v>
+      </c>
+      <c r="R39">
+        <f>O39/24</f>
+        <v>3713.7443745480377</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f>N39/R39</f>
+        <v>3.2312401688822209E-4</v>
+      </c>
+      <c r="AK39" s="1"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>1.2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>8301609.9194346499</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40:R44" si="2">O40/24</f>
+        <v>345900.4133097771</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" ref="AJ40:AJ44" si="3">N40/R40</f>
+        <v>3.4692066092598717E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>1.2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>27243308.030921198</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>1135137.8346217165</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0571403431371826E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>1.2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>334531.50895390601</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>13938.812873079418</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6090545222657194E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>1.2</v>
+      </c>
+      <c r="O43" s="3">
+        <v>4516251.9201023299</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>188177.16333759707</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3769693341968056E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>1.2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>888256.11000372097</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>37010.671250155043</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2423081221337562E-5</v>
       </c>
     </row>
   </sheetData>
